--- a/DMSNewVSale_2025-12-23_12-19.xlsx
+++ b/DMSNewVSale_2025-12-23_12-19.xlsx
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>16.8300</t>
+  </si>
+  <si>
+    <t>ببرونه الجو كبيره</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
@@ -1400,7 +1409,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1410,11 +1419,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>15</v>
@@ -1426,14 +1435,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1443,11 +1452,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>15</v>
@@ -1459,14 +1468,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1476,11 +1485,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>15</v>
@@ -1492,14 +1501,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1516,7 +1525,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1532,7 +1541,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1542,51 +1551,84 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>82</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>72</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>23</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>80</v>
       </c>
-      <c t="s" r="Q26" s="12">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="27" ht="26.25" customHeight="1">
-      <c r="N27" s="13">
-        <v>768.88</v>
-      </c>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>81</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>82</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>83</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+    <row r="28" ht="25.5" customHeight="1">
+      <c r="N28" s="13">
+        <v>803.88</v>
+      </c>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>84</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>85</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>86</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1695,10 +1737,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
